--- a/data/trans_camb/P31_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P31_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-9,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,96</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>16,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,34</t>
+          <t>10,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>14,04</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,82</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,75</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 12,35</t>
+          <t>-25,5; 5,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 7,11</t>
+          <t>-24,95; 13,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 36,63</t>
+          <t>-26,72; 8,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 14,55</t>
+          <t>3,04; 31,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 21,49</t>
+          <t>-2,92; 24,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 7,78</t>
+          <t>0,68; 29,18</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-6,75; 14,93</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-8,68; 13,64</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-7,27; 14,05</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>-60,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-27,05%</t>
+          <t>-40,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>173,75%</t>
+          <t>-49,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>242,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>100,04%</t>
+          <t>152,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>202,76%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45,49%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24,01%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>35,39%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,62; 248,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-88,19; 180,68</t>
+          <t>-100,0; 453,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,03; 498,83</t>
+          <t>-100,0; 297,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,86; 200,32</t>
+          <t>-11,73; 1213,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,94; 275,97</t>
+          <t>-65,55; 1042,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,65; 111,42</t>
+          <t>-27,43; 1098,57</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-45,31; 266,64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-60,52; 251,75</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-44,9; 267,93</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>-8,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,44</t>
+          <t>-23,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,38</t>
+          <t>12,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>6,05</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-9,77</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,68; 16,64</t>
+          <t>-33,68; 27,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 18,88</t>
+          <t>-39,96; 32,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 26,8</t>
+          <t>-53,56; -4,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 24,98</t>
+          <t>-2,19; 27,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 17,72</t>
+          <t>-8,79; 19,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 18,68</t>
+          <t>-8,07; 20,25</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-15,1; 21,71</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-19,17; 22,04</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-28,75; 2,93</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>-10,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-28,07%</t>
+          <t>-26,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>-70,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>69,78%</t>
+          <t>74,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>36,34%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-6,31%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-39,41%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-65,65; 100,23</t>
+          <t>-72,57; 152,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-79,76; 130,89</t>
+          <t>-91,2; 213,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 215,21</t>
+          <t>-94,68; -11,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 214,82</t>
+          <t>-14,59; 267,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 105,35</t>
+          <t>-41,49; 208,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 104,9</t>
+          <t>-39,78; 225,48</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-44,57; 134,14</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-61,33; 134,89</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-74,91; 18,18</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,64</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,47</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>19,44</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12,53</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,89</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 7,96</t>
+          <t>-12,72; 15,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 6,23</t>
+          <t>-9,29; 19,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 20,23</t>
+          <t>-12,47; 16,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 16,81</t>
+          <t>6,83; 32,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 11,01</t>
+          <t>-4,23; 20,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 8,76</t>
+          <t>-10,4; 15,24</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 20,86</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 16,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 9,87</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-22,43%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-23,55%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>81,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>57,38%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31,54%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,97; 48,35</t>
+          <t>-49,92; 121,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,88; 38,47</t>
+          <t>-38,4; 189,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 101,6</t>
+          <t>-50,52; 159,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 84,04</t>
+          <t>22,46; 180,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,37; 54,87</t>
+          <t>-14,61; 112,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,15; 42,35</t>
+          <t>-36,65; 85,19</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10,54; 119,28</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-9,54; 96,32</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-32,05; 55,98</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,11</t>
+          <t>11,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,67</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,72</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,44</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,06</t>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7,37</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6,78</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,96; 26,49</t>
+          <t>0,88; 21,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 22,16</t>
+          <t>-1,11; 20,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 18,23</t>
+          <t>-4,12; 17,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 16,37</t>
+          <t>-7,65; 16,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,26; 18,58</t>
+          <t>-8,41; 15,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,29; 16,13</t>
+          <t>-11,75; 11,98</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 15,55</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 14,38</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-5,07; 10,95</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>197,85%</t>
+          <t>146,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>158,08%</t>
+          <t>112,53%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>42,0%</t>
+          <t>72,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>80,98%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>65,46%</t>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>44,3%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40,76%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15,02%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>58,15; 519,77</t>
+          <t>-4,35; 562,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>32,2; 409,15</t>
+          <t>-21,1; 480,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 109,51</t>
+          <t>-39,85; 386,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 100,41</t>
+          <t>-26,4; 93,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,08; 155,11</t>
+          <t>-26,0; 90,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,8; 128,84</t>
+          <t>-40,82; 70,18</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-7,36; 121,0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-8,73; 112,82</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-24,65; 88,85</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>15,98</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6,97</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>7,17</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 18,12</t>
+          <t>-6,46; 18,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 15,22</t>
+          <t>-9,89; 13,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 17,37</t>
+          <t>-11,3; 12,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,13; 28,86</t>
+          <t>-8,96; 23,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 13,95</t>
+          <t>-2,79; 30,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,58; 17,3</t>
+          <t>-11,53; 17,88</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,82; 17,24</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 17,08</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-7,31; 11,8</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>42,86%</t>
+          <t>43,81%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>78,47%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>56,72%</t>
+          <t>18,58%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>43,58%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>44,8%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 180,41</t>
+          <t>-31,9; 186,03</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,27; 157,17</t>
+          <t>-46,23; 149,8</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 116,9</t>
+          <t>-53,88; 137,65</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,03; 188,98</t>
+          <t>-39,56; 265,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 98,25</t>
+          <t>-13,84; 340,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,09; 120,16</t>
+          <t>-50,04; 210,19</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-13,96; 162,12</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-20,67; 145,23</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-36,32; 114,93</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-14,78</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-7,66</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-5,81</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-8,23</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-3,29</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-2,69</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 16,7</t>
+          <t>-15,2; 17,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 15,25</t>
+          <t>-13,4; 19,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-23,28; 9,45</t>
+          <t>-17,61; 14,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 11,54</t>
+          <t>-35,88; 5,1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 11,53</t>
+          <t>-29,75; 14,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 10,54</t>
+          <t>-28,11; 21,64</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-23,09; 4,23</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-18,38; 10,87</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-18,13; 15,98</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>48,84%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-15,18%</t>
+          <t>-5,75%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-13,57%</t>
+          <t>-37,12%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>-19,23%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-1,54%</t>
+          <t>-14,59%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-28,49%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-11,4%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-9,3%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-24,95; 262,66</t>
+          <t>-71,78; 230,38</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-37,02; 219,8</t>
+          <t>-65,68; 259,13</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-51,13; 30,64</t>
+          <t>-74,31; 217,59</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-53,13; 38,91</t>
+          <t>-70,72; 18,37</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-36,83; 53,94</t>
+          <t>-62,28; 52,14</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-39,7; 49,35</t>
+          <t>-58,74; 78,98</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-61,56; 18,65</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-51,83; 51,51</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-51,88; 75,54</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>3,32</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>5,41</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 8,97</t>
+          <t>-6,56; 9,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 7,49</t>
+          <t>-7,57; 10,54</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,26; 14,35</t>
+          <t>-12,81; 1,61</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,34; 11,49</t>
+          <t>2,38; 14,26</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,11; 9,98</t>
+          <t>-0,69; 11,61</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 7,19</t>
+          <t>-3,34; 10,68</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 10,6</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 8,36</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-5,9; 4,78</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>-23,55%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>25,97%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>15,12%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>27,17%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>16,15%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-2,06%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 67,47</t>
+          <t>-31,43; 65,7</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-29,01; 54,73</t>
+          <t>-38,06; 73,09</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>16,48; 70,2</t>
+          <t>-57,12; 11,48</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>4,54; 55,9</t>
+          <t>9,41; 75,3</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>8,89; 54,74</t>
+          <t>-3,11; 61,32</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 39,57</t>
+          <t>-14,63; 53,91</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 58,71</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; 48,03</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-25,15; 26,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
